--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Toolbar_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Toolbar_JS.xlsx
@@ -1314,7 +1314,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Toolbar_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Toolbar_JS.xlsx
@@ -788,7 +788,15 @@
   </si>
   <si>
     <t>wait(3);
-SetStartPage(http://127.0.0.1:8082/app/);</t>
+PullConfigxml;
+ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;);
+ChangeConfigxml(Configuration/WebServer,Enabled,&lt;Enabled VALUE="1"/&gt;);
+ChangeConfigxml(Configuration/WebServer,Port,&lt;Port VALUE="8082"/&gt;);
+ChangeConfigxml(Configuration/WebServer,WebFolder,&lt;WebFolder VALUE="\\auto\\ComplianceTest_JS\"/&gt;);
+ChangeConfigxml(Configuration/WebServer,Public,&lt;Public VALUE="1"/&gt;);
+ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
+PushConfigxml;</t>
   </si>
 </sst>
 </file>
@@ -1314,7 +1322,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1361,7 +1369,7 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="34.5" thickBot="1">
+    <row r="2" spans="1:11" ht="255.75" thickBot="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Toolbar_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Toolbar_JS.xlsx
@@ -790,11 +790,7 @@
     <t>wait(3);
 PullConfigxml;
 ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
-ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;);
-ChangeConfigxml(Configuration/WebServer,Enabled,&lt;Enabled VALUE="1"/&gt;);
-ChangeConfigxml(Configuration/WebServer,Port,&lt;Port VALUE="8082"/&gt;);
-ChangeConfigxml(Configuration/WebServer,WebFolder,&lt;WebFolder VALUE="\\auto\\ComplianceTest_JS\"/&gt;);
-ChangeConfigxml(Configuration/WebServer,Public,&lt;Public VALUE="1"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\ComplianceTest_JS\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
 ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
 PushConfigxml;</t>
   </si>
@@ -1369,7 +1365,7 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="255.75" thickBot="1">
+    <row r="2" spans="1:11" ht="179.25" thickBot="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Toolbar_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Toolbar_JS.xlsx
@@ -312,6 +312,79 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Native Toolbar JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0607
+};
+validate4
+{
+validate_Screenshot=VT200_0607
+};
+validate5
+{
+validate_Screenshot=VT200_0607_Options
+};
+validate6
+{
+validate_PageTitle=Compliance JS specs
+};
+validate7
+{
+validate_PageTitle=Compliance JS specs
+};
+validate8
+{
+validate_AppMinimized=appsscreen
+};
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Native Toolbar JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0603
+};
+validate4
+{
+validate_Screenshot=VT200_0605_before
+};
+validate5
+{
+validate_Text_Exists=VT200-0605
+};
+validate6
+{
+validate_Screenshot=VT200_0605
+};
+</t>
+  </si>
+  <si>
+    <t>Change Start page</t>
+  </si>
+  <si>
+    <t>wait(3);
+PullConfigxml;
+ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\ComplianceTest_JS\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
+ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
+PushConfigxml;</t>
+  </si>
+  <si>
     <t>validate1
 {
 validate_PageTitle=Compliance JS specs
@@ -327,14 +400,6 @@
 validate4
 {
 validate_Screenshot=VT200_0603
-};
-validate5
-{
-validate_PageTitle=Compliance JS specs
-};
-validate6
-{
-validate_PageTitle=Compliance JS specs
 };
 validate7
 {
@@ -352,35 +417,23 @@
 };
 validate3
 {
-validate_Text_Exists=VT200-0601
+validate_Text_Exists=VT200-0606
 };
 validate4
 {
-validate_Screenshot=VT200_0601
+validate_Screenshot=VT200_0606
 };
 validate5
 {
-validate_Screenshot=VT200_0601_Options
-};
-validate6
-{
-validate_PageTitle=Compliance JS specs
-};
-validate7
-{
-validate_PageTitle=Compliance JS specs
+validate_Screenshot=VT200_0606_Options
 };
 validate8
-{
-validate_PageTitle=Compliance JS specs
-};
-validate9
 {
 validate_AppMinimized=appsscreen
 };</t>
   </si>
   <si>
-    <t xml:space="preserve">validate1
+    <t>validate1
 {
 validate_PageTitle=Compliance JS specs
 };
@@ -390,353 +443,39 @@
 };
 validate3
 {
-validate_Text_Exists=VT200-0607
+validate_Text_Exists=VT200-0610
 };
 validate4
 {
-validate_Screenshot=VT200_0607
-};
-validate5
-{
-validate_Screenshot=VT200_0607_Options
+validate_Screenshot=VT200_0610
 };
 validate6
 {
-validate_PageTitle=Compliance JS specs
+validate_PageTitle=Native Toolbar JS Test
 };
 validate7
-{
-validate_PageTitle=Compliance JS specs
-};
-validate8
-{
-validate_AppMinimized=appsscreen
-};
-</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Native Toolbar JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0606
-};
-validate4
-{
-validate_Screenshot=VT200_0606
-};
-validate5
-{
-validate_Screenshot=VT200_0606_Options
-};
-validate6
-{
-validate_PageTitle=Compliance JS specs
-};
-validate7
-{
-validate_PageTitle=Compliance JS specs
-};
-validate8
 {
 validate_AppMinimized=appsscreen
 };</t>
   </si>
   <si>
-    <t xml:space="preserve">wait(5);
-validate1;
-link_Click(toolbar_test_link);
-validate2;
-SelectTestToRun(VT200_0604_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-TakeScreenshot(VT200_0604);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(5);
-validate1;
-link_Click(toolbar_test_link);
-validate2;
-SelectTestToRun(VT200_0608_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-TakeScreenshot(VT200_0608);
-validate4;
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0608_log_xpath);
-validate5;
-wait(2);
-press_Key(Back);
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0608_sync_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-TakeScreenshot(Toolbar_Sync);
-validate6;
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0608_Fullscreen_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-TakeScreenshot(Toolbar_Fullscreen);
-validate7;
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0608_minimize_xpath);
-validate8;
-wait(2);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(5);
-validate1;
-link_Click(toolbar_test_link);
-validate2;
-SelectTestToRun(VT200_0601_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-TakeScreenshot(VT200_0601);
-validate4;
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0601_options_xpath);
-SwitchApp(WEBVIEW);
-TakeScreenshot(VT200_0601_Options);
-validate5;
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0601_home_xpath);
-SwitchApp(WEBVIEW);
-validate6;
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0601_refresh_xpath);
-SwitchApp(WEBVIEW);
-validate7;
-link_Click(toolbar_test_link);
-SelectTestToRun(VT200_0601_string);
-ClickRunTest(runtest_top_xpath);
-ClickRunTest(runtest_bottom_xpath);
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(Toolbar_back_xpath);
-SwitchApp(WEBVIEW);
-validate8;
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0601_exit_xpath);
-validate9;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(5);
-validate1;
-link_Click(toolbar_test_link);
-validate2;
-SelectTestToRun(VT200_0602_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-TakeScreenshot(VT200_0602);
-validate4;
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(Toolbar_back_xpath);
-SwitchApp(WEBVIEW);
-validate5;
-link_Click(toolbar_test_link);
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0602_603_home_xpath);
-SwitchApp(WEBVIEW);
-validate6;
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0602_603_exit_xpath);
-validate7;
-</t>
-  </si>
-  <si>
     <t>wait(5);
-validate1;
-link_Click(toolbar_test_link);
-validate2;
-SelectTestToRun(VT200_0606_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-TakeScreenshot(VT200_0606);
-validate4;
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0606_options_xpath);
-SwitchApp(WEBVIEW);
-TakeScreenshot(VT200_0606_Options);
-validate5;
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0606_home_xpath);
-SwitchApp(WEBVIEW);
-validate6;
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0606_refresh_xpath);
-SwitchApp(WEBVIEW);
-validate7;
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0606_exit_xpath);
-validate8;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(5);
-validate1;
-link_Click(toolbar_test_link);
-validate2;
-SelectTestToRun(VT200_0607_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-TakeScreenshot(VT200_0607);
-validate4;
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0607_options_xpath);
-SwitchApp(WEBVIEW);
-TakeScreenshot(VT200_0607_Options);
-validate5;
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0607_index_xpath);
-SwitchApp(WEBVIEW);
-validate6;
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0607_refresh_xpath);
-SwitchApp(WEBVIEW);
-validate7;
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0607_exit_xpath);
-validate8;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(5);
 validate1;
 link_Click(toolbar_test_link);
 validate2;
 SelectTestToRun(VT200_0603_string);
 ClickRunTest(runtest_top_xpath);
-wait(5);
 validate3;
 ClickRunTest(runtest_bottom_xpath);
 wait(5);
 TakeScreenshot(VT200_0603);
 validate4;
 SwitchApp(NATIVE_APP);
-ClickNativeIcon(Toolbar_back_xpath);
-SwitchApp(WEBVIEW);
-validate5;
-link_Click(toolbar_test_link);
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0602_603_home_xpath);
-SwitchApp(WEBVIEW);
-validate6;
-SwitchApp(NATIVE_APP);
 ClickNativeIcon(VT200_0602_603_exit_xpath);
-validate7;
-</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Native Toolbar JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0602
-};
-validate4
-{
-validate_Screenshot=VT200_0602
-};
-validate5
-{
-validate_PageTitle=Compliance JS specs
-};
-validate6
-{
-validate_PageTitle=Compliance JS specs
-};
-validate7
-{
-validate_AppMinimized=appsscreen
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Native Toolbar JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0610
-};
-validate4
-{
-validate_Screenshot=VT200_0610
-};
-validate5
-{
-validate_PageTitle=Compliance JS specs
-};
-validate6
-{
-validate_PageTitle=Compliance JS specs
-};
-validate7
-{
-validate_AppMinimized=appsscreen
-};</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(5);
-validate1;
-link_Click(toolbar_test_link);
-validate2;
-SelectTestToRun(VT200_0610_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-TakeScreenshot(VT200_0610);
-validate4;
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0610_home_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-validate5;
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0610_refresh_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-validate6;
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0610_exit_xpath);
-wait(2);
-validate7;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(5);
+validate7;</t>
+  </si>
+  <si>
+    <t>wait(5);
 validate1;
 link_Click(toolbar_test_link);
 validate2;
@@ -751,13 +490,168 @@
 ClickRunTest(runtest_top_xpath);
 validate5;
 ClickRunTest(runtest_bottom_xpath);
+wait(3);
+TakeNativeScreenshot(VT200_0605);
+validate6;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(toolbar_test_link);
+validate2;
+SelectTestToRun(VT200_0606_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
 wait(5);
-TakeNativeScreenshot(VT200_0605);
+TakeScreenshot(VT200_0606);
+validate4;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0606_options_xpath);
+SwitchApp(WEBVIEW);
+TakeScreenshot(VT200_0606_Options);
+validate5;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0606_refresh_xpath);
+SwitchApp(WEBVIEW);
+validate7;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0606_exit_xpath);
+validate8;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(toolbar_test_link);
+validate2;
+SelectTestToRun(VT200_0604_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+TakeScreenshot(VT200_0604);
+validate4;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(toolbar_test_link);
+validate2;
+SelectTestToRun(VT200_0607_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+TakeScreenshot(VT200_0607);
+validate4;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0607_options_xpath);
+SwitchApp(WEBVIEW);
+TakeScreenshot(VT200_0607_Options);
+validate5;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0607_index_xpath);
+SwitchApp(WEBVIEW);
 validate6;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0607_refresh_xpath);
+SwitchApp(WEBVIEW);
+validate7;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0607_exit_xpath);
+validate8;
 </t>
   </si>
   <si>
-    <t xml:space="preserve">validate1
+    <t>wait(5);
+validate1;
+link_Click(toolbar_test_link);
+validate2;
+SelectTestToRun(VT200_0610_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+TakeScreenshot(VT200_0610);
+validate4;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0610_refresh_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+validate6;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0610_exit_xpath);
+wait(2);
+validate7;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(toolbar_test_link);
+validate2;
+SelectTestToRun(VT200_0608_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+TakeScreenshot(VT200_0608);
+validate4;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0608_log_xpath);
+validate5;
+wait(2);
+press_Key(Back);
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0608_sync_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+TakeScreenshot(Toolbar_Sync);
+validate6;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0608_Fullscreen_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+TakeScreenshot(Toolbar_Fullscreen);
+validate7;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0608_minimize_xpath);
+validate8;
+wait(2);
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(toolbar_test_link);
+validate2;
+SelectTestToRun(VT200_0601_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+TakeScreenshot(VT200_0601);
+validate4;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0601_options_xpath);
+SwitchApp(WEBVIEW);
+TakeScreenshot(VT200_0601_Options);
+validate5;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0601_home_xpath);
+SwitchApp(WEBVIEW);
+TakeScreenshot(VT200_0601_home);
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0601_refresh_xpath);
+SwitchApp(WEBVIEW);
+TakeScreenshot(VT200_0601_refresh);
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0601_exit_xpath);
+validate9;
+</t>
+  </si>
+  <si>
+    <t>validate1
 {
 validate_PageTitle=Compliance JS specs
 };
@@ -767,32 +661,75 @@
 };
 validate3
 {
-validate_Text_Exists=VT200-0603
+validate_Text_Exists=VT200-0601
 };
 validate4
 {
-validate_Screenshot=VT200_0605_before
+validate_Screenshot=VT200_0601
 };
 validate5
 {
-validate_Text_Exists=VT200-0605
-};
-validate6
-{
-validate_Screenshot=VT200_0605
-};
+validate_Screenshot=VT200_0601_Options
+};
+validate9
+{
+validate_Screenshot=VT200_0601_home
+validate_Screenshot=VT200_0601_refresh
+validate_AppMinimized=appsscreen
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(toolbar_test_link);
+validate2;
+SelectTestToRun(VT200_0602_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+TakeScreenshot(VT200_0602);
+validate4;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(Toolbar_back_xpath);
+TakeScreenshot(VT200_0602_back);
+SwitchApp(WEBVIEW);
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0602_603_home_xpath);
+SwitchApp(WEBVIEW);
+TakeScreenshot(VT200_0602_home);
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0602_603_exit_xpath);
+validate7;
 </t>
   </si>
   <si>
-    <t>Change Start page</t>
-  </si>
-  <si>
-    <t>wait(3);
-PullConfigxml;
-ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
-ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\ComplianceTest_JS\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
-ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
-PushConfigxml;</t>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Native Toolbar JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0602
+};
+validate4
+{
+validate_Screenshot=VT200_0602
+};
+validate5
+{
+validate_PageTitle=Compliance JS specs
+};
+validate7
+{
+validate_Screenshot=VT200_0602_back
+validate_Screenshot=VT200_0602_home
+validate_AppMinimized=appsscreen
+};</t>
   </si>
 </sst>
 </file>
@@ -1317,9 +1254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1379,13 +1314,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="2" t="s">
@@ -1394,7 +1329,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="409.6" thickBot="1">
+    <row r="3" spans="1:11" ht="357.75" thickBot="1">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -1412,16 +1347,16 @@
         <v>1</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="357.75" thickBot="1">
+    <row r="4" spans="1:11" ht="332.25" thickBot="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1439,16 +1374,16 @@
         <v>1</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="357.75" thickBot="1">
+    <row r="5" spans="1:11" ht="255.75" thickBot="1">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -1466,10 +1401,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
@@ -1493,16 +1428,16 @@
         <v>1</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="408.75" thickBot="1">
+    <row r="7" spans="1:11" ht="306.75" thickBot="1">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -1520,10 +1455,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -1547,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>52</v>
@@ -1574,16 +1509,16 @@
         <v>1</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="357.75" thickBot="1">
+    <row r="10" spans="1:11" ht="306.75" thickBot="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1601,10 +1536,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -1628,7 +1563,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>53</v>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Toolbar_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Toolbar_JS.xlsx
@@ -475,6 +475,243 @@
 validate7;</t>
   </si>
   <si>
+    <t>wait(3);
+validate1;
+link_Click(toolbar_test_link);
+validate2;
+SelectTestToRun(VT200_0606_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+TakeScreenshot(VT200_0606);
+validate4;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0606_options_xpath);
+SwitchApp(WEBVIEW);
+TakeScreenshot(VT200_0606_Options);
+validate5;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0606_refresh_xpath);
+SwitchApp(WEBVIEW);
+validate7;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0606_exit_xpath);
+validate8;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(toolbar_test_link);
+validate2;
+SelectTestToRun(VT200_0604_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+TakeScreenshot(VT200_0604);
+validate4;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(toolbar_test_link);
+validate2;
+SelectTestToRun(VT200_0607_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+TakeScreenshot(VT200_0607);
+validate4;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0607_options_xpath);
+SwitchApp(WEBVIEW);
+TakeScreenshot(VT200_0607_Options);
+validate5;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0607_index_xpath);
+SwitchApp(WEBVIEW);
+validate6;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0607_refresh_xpath);
+SwitchApp(WEBVIEW);
+validate7;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0607_exit_xpath);
+validate8;
+</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(toolbar_test_link);
+validate2;
+SelectTestToRun(VT200_0610_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+TakeScreenshot(VT200_0610);
+validate4;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0610_refresh_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+validate6;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0610_exit_xpath);
+wait(2);
+validate7;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(toolbar_test_link);
+validate2;
+SelectTestToRun(VT200_0608_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+TakeScreenshot(VT200_0608);
+validate4;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0608_log_xpath);
+validate5;
+wait(2);
+press_Key(Back);
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0608_sync_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+TakeScreenshot(Toolbar_Sync);
+validate6;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0608_Fullscreen_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+TakeScreenshot(Toolbar_Fullscreen);
+validate7;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0608_minimize_xpath);
+validate8;
+wait(2);
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(toolbar_test_link);
+validate2;
+SelectTestToRun(VT200_0601_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+TakeScreenshot(VT200_0601);
+validate4;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0601_options_xpath);
+SwitchApp(WEBVIEW);
+TakeScreenshot(VT200_0601_Options);
+validate5;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0601_home_xpath);
+SwitchApp(WEBVIEW);
+TakeScreenshot(VT200_0601_home);
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0601_refresh_xpath);
+SwitchApp(WEBVIEW);
+TakeScreenshot(VT200_0601_refresh);
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0601_exit_xpath);
+validate9;
+</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Native Toolbar JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0601
+};
+validate4
+{
+validate_Screenshot=VT200_0601
+};
+validate5
+{
+validate_Screenshot=VT200_0601_Options
+};
+validate9
+{
+validate_Screenshot=VT200_0601_home
+validate_Screenshot=VT200_0601_refresh
+validate_AppMinimized=appsscreen
+};</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(toolbar_test_link);
+validate2;
+SelectTestToRun(VT200_0602_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+TakeScreenshot(VT200_0602);
+validate4;
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(Toolbar_back_xpath);
+TakeScreenshot(VT200_0602_back);
+SwitchApp(WEBVIEW);
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0602_603_home_xpath);
+SwitchApp(WEBVIEW);
+TakeScreenshot(VT200_0602_home);
+SwitchApp(NATIVE_APP);
+ClickNativeIcon(VT200_0602_603_exit_xpath);
+validate7;
+</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Native Toolbar JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0602
+};
+validate4
+{
+validate_Screenshot=VT200_0602
+};
+validate5
+{
+validate_PageTitle=Compliance JS specs
+};
+validate7
+{
+validate_Screenshot=VT200_0602_back
+validate_Screenshot=VT200_0602_home
+validate_AppMinimized=appsscreen
+};</t>
+  </si>
+  <si>
     <t>wait(5);
 validate1;
 link_Click(toolbar_test_link);
@@ -491,245 +728,8 @@
 validate5;
 ClickRunTest(runtest_bottom_xpath);
 wait(3);
-TakeNativeScreenshot(VT200_0605);
+TakeScreenshot(VT200_0605);
 validate6;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(toolbar_test_link);
-validate2;
-SelectTestToRun(VT200_0606_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-TakeScreenshot(VT200_0606);
-validate4;
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0606_options_xpath);
-SwitchApp(WEBVIEW);
-TakeScreenshot(VT200_0606_Options);
-validate5;
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0606_refresh_xpath);
-SwitchApp(WEBVIEW);
-validate7;
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0606_exit_xpath);
-validate8;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(toolbar_test_link);
-validate2;
-SelectTestToRun(VT200_0604_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-TakeScreenshot(VT200_0604);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(toolbar_test_link);
-validate2;
-SelectTestToRun(VT200_0607_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-TakeScreenshot(VT200_0607);
-validate4;
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0607_options_xpath);
-SwitchApp(WEBVIEW);
-TakeScreenshot(VT200_0607_Options);
-validate5;
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0607_index_xpath);
-SwitchApp(WEBVIEW);
-validate6;
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0607_refresh_xpath);
-SwitchApp(WEBVIEW);
-validate7;
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0607_exit_xpath);
-validate8;
-</t>
-  </si>
-  <si>
-    <t>wait(5);
-validate1;
-link_Click(toolbar_test_link);
-validate2;
-SelectTestToRun(VT200_0610_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-TakeScreenshot(VT200_0610);
-validate4;
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0610_refresh_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-validate6;
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0610_exit_xpath);
-wait(2);
-validate7;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(toolbar_test_link);
-validate2;
-SelectTestToRun(VT200_0608_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-TakeScreenshot(VT200_0608);
-validate4;
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0608_log_xpath);
-validate5;
-wait(2);
-press_Key(Back);
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0608_sync_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-TakeScreenshot(Toolbar_Sync);
-validate6;
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0608_Fullscreen_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-TakeScreenshot(Toolbar_Fullscreen);
-validate7;
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0608_minimize_xpath);
-validate8;
-wait(2);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(toolbar_test_link);
-validate2;
-SelectTestToRun(VT200_0601_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-TakeScreenshot(VT200_0601);
-validate4;
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0601_options_xpath);
-SwitchApp(WEBVIEW);
-TakeScreenshot(VT200_0601_Options);
-validate5;
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0601_home_xpath);
-SwitchApp(WEBVIEW);
-TakeScreenshot(VT200_0601_home);
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0601_refresh_xpath);
-SwitchApp(WEBVIEW);
-TakeScreenshot(VT200_0601_refresh);
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0601_exit_xpath);
-validate9;
-</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Native Toolbar JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0601
-};
-validate4
-{
-validate_Screenshot=VT200_0601
-};
-validate5
-{
-validate_Screenshot=VT200_0601_Options
-};
-validate9
-{
-validate_Screenshot=VT200_0601_home
-validate_Screenshot=VT200_0601_refresh
-validate_AppMinimized=appsscreen
-};</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(toolbar_test_link);
-validate2;
-SelectTestToRun(VT200_0602_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-TakeScreenshot(VT200_0602);
-validate4;
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(Toolbar_back_xpath);
-TakeScreenshot(VT200_0602_back);
-SwitchApp(WEBVIEW);
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0602_603_home_xpath);
-SwitchApp(WEBVIEW);
-TakeScreenshot(VT200_0602_home);
-SwitchApp(NATIVE_APP);
-ClickNativeIcon(VT200_0602_603_exit_xpath);
-validate7;
-</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Native Toolbar JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0602
-};
-validate4
-{
-validate_Screenshot=VT200_0602
-};
-validate5
-{
-validate_PageTitle=Compliance JS specs
-};
-validate7
-{
-validate_Screenshot=VT200_0602_back
-validate_Screenshot=VT200_0602_home
-validate_AppMinimized=appsscreen
-};</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1254,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1347,10 +1349,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>69</v>
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="2"/>
@@ -1374,10 +1376,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>70</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>71</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
@@ -1428,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>55</v>
@@ -1455,7 +1457,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>59</v>
@@ -1482,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>52</v>
@@ -1509,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>54</v>
@@ -1536,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>60</v>
@@ -1563,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>53</v>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Toolbar_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Toolbar_JS.xlsx
@@ -347,33 +347,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Native Toolbar JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0603
-};
-validate4
-{
-validate_Screenshot=VT200_0605_before
-};
-validate5
-{
-validate_Text_Exists=VT200-0605
-};
-validate6
-{
-validate_Screenshot=VT200_0605
-};
-</t>
-  </si>
-  <si>
     <t>Change Start page</t>
   </si>
   <si>
@@ -712,6 +685,33 @@
 };</t>
   </si>
   <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Native Toolbar JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0603
+};
+validate4
+{
+validate_isIconDisplayed=toobarview_xpath,true
+};
+validate5
+{
+validate_Text_Exists=VT200-0605
+};
+validate6
+{
+validate_isIconDisplayed=toobarview_xpath,false
+};
+</t>
+  </si>
+  <si>
     <t>wait(5);
 validate1;
 link_Click(toolbar_test_link);
@@ -721,14 +721,12 @@
 validate3;
 ClickRunTest(runtest_bottom_xpath);
 wait(5);
-TakeScreenshot(VT200_0605_before);
 validate4;
 SelectTestToRun(VT200_0605_string);
 ClickRunTest(runtest_top_xpath);
 validate5;
 ClickRunTest(runtest_bottom_xpath);
 wait(3);
-TakeScreenshot(VT200_0605);
 validate6;</t>
   </si>
 </sst>
@@ -1254,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1316,13 +1314,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>56</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>57</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="2" t="s">
@@ -1349,10 +1347,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>67</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>68</v>
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="2"/>
@@ -1376,10 +1374,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
@@ -1403,10 +1401,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
@@ -1433,7 +1431,7 @@
         <v>71</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -1457,10 +1455,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -1484,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>52</v>
@@ -1511,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>54</v>
@@ -1538,10 +1536,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -1565,7 +1563,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>53</v>
